--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17383</v>
       </c>
       <c r="G2" t="n">
-        <v>60299.80078125</v>
+        <v>60594.6015625</v>
       </c>
       <c r="H2" t="n">
         <v>22207.900390625</v>
@@ -2943,7 +2943,7 @@
         <v>8.42</v>
       </c>
       <c r="G2" t="n">
-        <v>6.11</v>
+        <v>6.63</v>
       </c>
       <c r="H2" t="n">
         <v>5.19</v>
@@ -5364,7 +5364,7 @@
         <v>0.76</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="H2" t="n">
         <v>0.39</v>
@@ -7708,21 +7708,21 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.34</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.11</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="5">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty Next 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Next 50, Nifty Midcap 150</t>
         </is>
       </c>
     </row>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.55%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17265.849609375</v>
       </c>
       <c r="G2" t="n">
-        <v>59592.1484375</v>
+        <v>60310.1484375</v>
       </c>
       <c r="H2" t="n">
         <v>22146.150390625</v>
@@ -682,34 +682,34 @@
         <v>46003</v>
       </c>
       <c r="B7" t="n">
-        <v>26046.94921875</v>
+        <v>25898.55078125</v>
       </c>
       <c r="C7" t="n">
-        <v>68509.703125</v>
+        <v>67939.5</v>
       </c>
       <c r="D7" t="n">
-        <v>26565.099609375</v>
+        <v>26402.44921875</v>
       </c>
       <c r="E7" t="n">
         <v>14469.2998046875</v>
       </c>
       <c r="F7" t="n">
-        <v>17276.19921875</v>
+        <v>17089.75</v>
       </c>
       <c r="G7" t="n">
-        <v>60283.30078125</v>
+        <v>59578.05078125</v>
       </c>
       <c r="H7" t="n">
         <v>22152.099609375</v>
       </c>
       <c r="I7" t="n">
-        <v>23726.19921875</v>
+        <v>23550.849609375</v>
       </c>
       <c r="J7" t="n">
         <v>16.45000076293945</v>
       </c>
       <c r="K7" t="n">
-        <v>23726.19921875</v>
+        <v>23550.849609375</v>
       </c>
     </row>
     <row r="8">
@@ -3293,7 +3293,7 @@
         <v>7.69</v>
       </c>
       <c r="G2" t="n">
-        <v>4.87</v>
+        <v>6.13</v>
       </c>
       <c r="H2" t="n">
         <v>4.9</v>
@@ -3453,34 +3453,34 @@
         <v>46003</v>
       </c>
       <c r="B7" t="n">
-        <v>5.77</v>
+        <v>5.17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.76</v>
+        <v>1.9</v>
       </c>
       <c r="D7" t="n">
-        <v>5.29</v>
+        <v>4.64</v>
       </c>
       <c r="E7" t="n">
         <v>5.44</v>
       </c>
       <c r="F7" t="n">
-        <v>7.75</v>
+        <v>6.59</v>
       </c>
       <c r="G7" t="n">
-        <v>6.08</v>
+        <v>4.84</v>
       </c>
       <c r="H7" t="n">
         <v>4.93</v>
       </c>
       <c r="I7" t="n">
-        <v>4.46</v>
+        <v>3.69</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.46</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="8">
@@ -6064,7 +6064,7 @@
         <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
         <v>1.16</v>
@@ -6189,34 +6189,34 @@
         <v>46006</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.08</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16</v>
+        <v>1.01</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04</v>
+        <v>0.58</v>
       </c>
       <c r="E6" t="n">
         <v>-0.05</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.12</v>
+        <v>1.07</v>
       </c>
       <c r="H6" t="n">
         <v>-0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0.74</v>
       </c>
       <c r="J6" t="n">
         <v>0.24</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -6224,34 +6224,34 @@
         <v>46003</v>
       </c>
       <c r="B7" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0.72</v>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0.86</v>
       </c>
       <c r="K7" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8758,51 +8758,51 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.45</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Nifty 200</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.2</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nifty 100</t>
+          <t>Nifty 200</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.98</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150</t>
+          <t>Nifty 100</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.9</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 150</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.87</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
@@ -8889,12 +8889,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty Midcap 50, Nifty Next 50</t>
+          <t>Nifty Midcap 100, Nifty Midcap 150, Nifty Midcap 50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
     </row>
@@ -8957,12 +8957,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nifty500 Multicap 50:25:25, Nifty Next 50, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
+          <t>Nifty Midcap 100, Nifty Next 50, Nifty Midcap 50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty Midcap 50</t>
+          <t>Nifty Midcap 150, Nifty 200, Nifty500 Multicap 50:25:25</t>
         </is>
       </c>
     </row>
@@ -8974,12 +8974,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty Midcap 150, Nifty Midcap 50</t>
+          <t>Nifty Midcap 150, Nifty500 Multicap 50:25:25, Nifty 200</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nifty 50, Nifty 100, Nifty 200</t>
+          <t>Nifty 50, Nifty Next 50, Nifty 100</t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.76%</t>
+          <t>4.89%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -682,34 +682,34 @@
         <v>46003</v>
       </c>
       <c r="B7" t="n">
-        <v>25898.55078125</v>
+        <v>26046.94921875</v>
       </c>
       <c r="C7" t="n">
-        <v>67939.5</v>
+        <v>68509.703125</v>
       </c>
       <c r="D7" t="n">
-        <v>26402.44921875</v>
+        <v>26565.099609375</v>
       </c>
       <c r="E7" t="n">
         <v>14469.2998046875</v>
       </c>
       <c r="F7" t="n">
-        <v>17089.75</v>
+        <v>17276.19921875</v>
       </c>
       <c r="G7" t="n">
-        <v>59578.05078125</v>
+        <v>60283.30078125</v>
       </c>
       <c r="H7" t="n">
         <v>22152.099609375</v>
       </c>
       <c r="I7" t="n">
-        <v>23550.849609375</v>
+        <v>23726.19921875</v>
       </c>
       <c r="J7" t="n">
         <v>16.45000076293945</v>
       </c>
       <c r="K7" t="n">
-        <v>23550.849609375</v>
+        <v>23726.19921875</v>
       </c>
     </row>
     <row r="8">
@@ -3453,34 +3453,34 @@
         <v>46003</v>
       </c>
       <c r="B7" t="n">
-        <v>5.17</v>
+        <v>5.77</v>
       </c>
       <c r="C7" t="n">
-        <v>1.9</v>
+        <v>2.76</v>
       </c>
       <c r="D7" t="n">
-        <v>4.64</v>
+        <v>5.29</v>
       </c>
       <c r="E7" t="n">
         <v>5.44</v>
       </c>
       <c r="F7" t="n">
-        <v>6.59</v>
+        <v>7.75</v>
       </c>
       <c r="G7" t="n">
-        <v>4.84</v>
+        <v>6.08</v>
       </c>
       <c r="H7" t="n">
         <v>4.93</v>
       </c>
       <c r="I7" t="n">
-        <v>3.69</v>
+        <v>4.46</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.69</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="8">
@@ -6189,34 +6189,34 @@
         <v>46006</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>-0.08</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01</v>
+        <v>0.16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>-0.04</v>
       </c>
       <c r="E6" t="n">
         <v>-0.05</v>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>-0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>1.07</v>
+        <v>-0.12</v>
       </c>
       <c r="H6" t="n">
         <v>-0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.74</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
         <v>0.24</v>
       </c>
       <c r="K6" t="n">
-        <v>0.74</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -6224,34 +6224,34 @@
         <v>46003</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="E7" t="n">
         <v>0.72</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H7" t="n">
         <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J7" t="n">
         <v>0.86</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8">
@@ -8957,12 +8957,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty Next 50, Nifty Midcap 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Next 50, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty 200, Nifty500 Multicap 50:25:25</t>
+          <t>Nifty Midcap 100, Nifty 50, Nifty Midcap 50</t>
         </is>
       </c>
     </row>
@@ -8974,12 +8974,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty500 Multicap 50:25:25, Nifty 200</t>
+          <t>Nifty Midcap 100, Nifty Midcap 150, Nifty Midcap 50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nifty 50, Nifty Next 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17248.19921875</v>
       </c>
       <c r="G2" t="n">
-        <v>60816.1015625</v>
+        <v>60451.3515625</v>
       </c>
       <c r="H2" t="n">
         <v>22247.349609375</v>
@@ -3398,7 +3398,7 @@
         <v>7.58</v>
       </c>
       <c r="G2" t="n">
-        <v>7.02</v>
+        <v>6.38</v>
       </c>
       <c r="H2" t="n">
         <v>5.38</v>
@@ -6274,7 +6274,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="H2" t="n">
         <v>-0.47</v>
@@ -9077,7 +9077,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.02</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="4">
@@ -9204,12 +9204,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty 50, Nifty 100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 50, Nifty Midcap 150, Nifty 200</t>
+          <t>Nifty Midcap 50, Nifty Midcap 100, Nifty Midcap 150</t>
         </is>
       </c>
     </row>
@@ -10756,7 +10756,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>5.5%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17183.30078125</v>
       </c>
       <c r="G2" t="n">
-        <v>60451.3515625</v>
+        <v>60314.44921875</v>
       </c>
       <c r="H2" t="n">
         <v>22190.75</v>
@@ -3433,7 +3433,7 @@
         <v>7.17</v>
       </c>
       <c r="G2" t="n">
-        <v>6.38</v>
+        <v>6.14</v>
       </c>
       <c r="H2" t="n">
         <v>5.11</v>
@@ -6344,7 +6344,7 @@
         <v>-0.38</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="H2" t="n">
         <v>-0.25</v>
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.38</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="4">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.23%</t>
+          <t>5.21%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17254.05078125</v>
       </c>
       <c r="G2" t="n">
-        <v>59914.25</v>
+        <v>60484.5</v>
       </c>
       <c r="H2" t="n">
         <v>22276.900390625</v>
@@ -3538,7 +3538,7 @@
         <v>7.61</v>
       </c>
       <c r="G2" t="n">
-        <v>5.44</v>
+        <v>6.44</v>
       </c>
       <c r="H2" t="n">
         <v>5.52</v>
@@ -6554,7 +6554,7 @@
         <v>1.14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="H2" t="n">
         <v>0.97</v>
@@ -9493,51 +9493,51 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.11</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Nifty 200</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.91</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nifty 100</t>
+          <t>Nifty 200</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.78</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150</t>
+          <t>Nifty 100</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.52</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 150</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.44</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="8">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
     </row>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>5.62%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17096.5</v>
       </c>
       <c r="G2" t="n">
-        <v>60222.55078125</v>
+        <v>59748.1484375</v>
       </c>
       <c r="H2" t="n">
         <v>21985.900390625</v>
@@ -3783,7 +3783,7 @@
         <v>6.63</v>
       </c>
       <c r="G2" t="n">
-        <v>5.98</v>
+        <v>5.14</v>
       </c>
       <c r="H2" t="n">
         <v>4.14</v>
@@ -7044,7 +7044,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0.79</v>
       </c>
       <c r="H2" t="n">
         <v>-0.88</v>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.98</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="4">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty Midcap 50, Nifty 50</t>
+          <t>Nifty Midcap 50, Nifty 50, Nifty 100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.14%</t>
+          <t>4.05%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17054.25</v>
       </c>
       <c r="G2" t="n">
-        <v>59597.80078125</v>
+        <v>59770.5</v>
       </c>
       <c r="H2" t="n">
         <v>21965.44921875</v>
@@ -3888,7 +3888,7 @@
         <v>6.37</v>
       </c>
       <c r="G2" t="n">
-        <v>4.88</v>
+        <v>5.18</v>
       </c>
       <c r="H2" t="n">
         <v>4.04</v>
@@ -7254,7 +7254,7 @@
         <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="H2" t="n">
         <v>0.21</v>
@@ -10547,7 +10547,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.88</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="4">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Next 50, Nifty500 Multicap 50:25:25, Nifty Midcap 150</t>
+          <t>Nifty Next 50, Nifty Midcap 100, Nifty500 Multicap 50:25:25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.04%</t>
+          <t>4.08%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -522,7 +522,7 @@
         <v>17146.19921875</v>
       </c>
       <c r="G2" t="n">
-        <v>59770.5</v>
+        <v>59867.80078125</v>
       </c>
       <c r="H2" t="n">
         <v>21975.099609375</v>
@@ -3923,7 +3923,7 @@
         <v>6.94</v>
       </c>
       <c r="G2" t="n">
-        <v>5.18</v>
+        <v>5.35</v>
       </c>
       <c r="H2" t="n">
         <v>4.09</v>
@@ -7324,7 +7324,7 @@
         <v>0.54</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H2" t="n">
         <v>0.04</v>
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.18</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="4">
@@ -10779,12 +10779,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 50, Nifty 200, Nifty 50</t>
+          <t>Nifty Midcap 50, Nifty Midcap 100, Nifty 200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 100, Nifty Midcap 150</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 150, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
         </is>
       </c>
     </row>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>4.2%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -508,7 +508,7 @@
         <v>16348.150390625</v>
       </c>
       <c r="G2" t="n">
-        <v>58191.30078125</v>
+        <v>57145.6484375</v>
       </c>
       <c r="H2" t="n">
         <v>21008.55078125</v>
@@ -4084,7 +4084,7 @@
         <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>-0.49</v>
@@ -7660,7 +7660,7 @@
         <v>-1.94</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="H2" t="n">
         <v>-1.72</v>
@@ -11149,51 +11149,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nifty Midcap 50</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty 100</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.72</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nifty 100</t>
+          <t>Nifty 200</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nifty 200</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.21</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -11290,12 +11290,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nifty Next 50, Nifty Midcap 50, Nifty Midcap 150</t>
+          <t>Nifty Next 50, Nifty Midcap 50, Nifty Midcap 100</t>
         </is>
       </c>
     </row>
@@ -13182,7 +13182,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.44%</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 50</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -508,7 +508,7 @@
         <v>16693.25</v>
       </c>
       <c r="G2" t="n">
-        <v>58541</v>
+        <v>58432</v>
       </c>
       <c r="H2" t="n">
         <v>21490.900390625</v>
@@ -4224,7 +4224,7 @@
         <v>4.11</v>
       </c>
       <c r="G2" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
       <c r="H2" t="n">
         <v>1.8</v>
@@ -7940,7 +7940,7 @@
         <v>-0.26</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="H2" t="n">
         <v>0.03</v>
@@ -11583,7 +11583,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="4">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty Midcap 100, Nifty500 Multicap 50:25:25</t>
+          <t>Nifty Midcap 150, Nifty500 Multicap 50:25:25, Nifty Midcap 100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>2.25%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -508,7 +508,7 @@
         <v>16912.349609375</v>
       </c>
       <c r="G2" t="n">
-        <v>59227.6484375</v>
+        <v>59513.94921875</v>
       </c>
       <c r="H2" t="n">
         <v>21918.19921875</v>
@@ -10524,7 +10524,7 @@
         <v>4.13</v>
       </c>
       <c r="G2" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="H2" t="n">
         <v>3.16</v>
@@ -20540,7 +20540,7 @@
         <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H2" t="n">
         <v>0.48</v>
@@ -30543,7 +30543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="10">
@@ -30615,7 +30615,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty Midcap 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 50, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
         </is>
       </c>
     </row>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>3.57%</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_raw.xlsx
+++ b/nse_indices_1_raw.xlsx
@@ -508,7 +508,7 @@
         <v>16765.599609375</v>
       </c>
       <c r="G2" t="n">
-        <v>59798.1484375</v>
+        <v>59115.6015625</v>
       </c>
       <c r="H2" t="n">
         <v>21847.349609375</v>
@@ -10699,7 +10699,7 @@
         <v>3.22</v>
       </c>
       <c r="G2" t="n">
-        <v>2.91</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>2.83</v>
@@ -20890,7 +20890,7 @@
         <v>-1.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.14</v>
       </c>
       <c r="H2" t="n">
         <v>-1.09</v>
@@ -31034,21 +31034,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 150</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="8">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty Midcap 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 50, Nifty Midcap 150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -36240,7 +36240,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.86%</t>
+          <t>2.74%</t>
         </is>
       </c>
     </row>
